--- a/XLFiles/Examples/Template Example Complex.xlsx
+++ b/XLFiles/Examples/Template Example Complex.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="330" yWindow="1095" windowWidth="7830" windowHeight="1965" tabRatio="880"/>
@@ -763,9 +763,6 @@
     <t>child</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>Region</t>
   </si>
   <si>
@@ -800,9 +797,6 @@
     <t>Division Template</t>
   </si>
   <si>
-    <t>Execute Detail &lt;&lt;ES&gt;&gt;</t>
-  </si>
-  <si>
     <t>Parent-Child Template</t>
   </si>
   <si>
@@ -815,9 +809,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>ES-Region</t>
-  </si>
-  <si>
     <t>Detailed Plan</t>
   </si>
   <si>
@@ -879,6 +870,15 @@
   </si>
   <si>
     <t>:^Evoked As,!Evoked Template,,^In Evocation,!-Role 2,,^In Evocation,!-Resp 2,,^In Evocation,!-Artifact 2,,^In Evocation,!-Evocation 2</t>
+  </si>
+  <si>
+    <t>Example Division-Region</t>
+  </si>
+  <si>
+    <t>Example Division</t>
+  </si>
+  <si>
+    <t>Execute Detail &lt;&lt;Example Division&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -11967,7 +11967,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11994,7 +11994,7 @@
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="42" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C5" s="42" t="s">
         <v>26</v>
@@ -12165,7 +12165,7 @@
       <c r="H24" s="42"/>
       <c r="I24" s="42"/>
       <c r="J24" s="43" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
@@ -12204,7 +12204,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="41"/>
       <c r="B30" s="42" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C30" s="42"/>
       <c r="D30" s="42"/>
@@ -12218,7 +12218,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="41"/>
       <c r="B31" s="42" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C31" s="42"/>
       <c r="D31" s="42"/>
@@ -12232,7 +12232,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="41"/>
       <c r="B32" s="42" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C32" s="42"/>
       <c r="D32" s="42"/>
@@ -16419,7 +16419,7 @@
         <v>8</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K3" t="s">
         <v>85</v>
@@ -16460,7 +16460,7 @@
         <v>42</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="K4" t="s">
         <v>86</v>
@@ -16498,7 +16498,7 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K5" t="s">
         <v>87</v>
@@ -16533,7 +16533,7 @@
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K6" t="s">
         <v>238</v>
@@ -16944,7 +16944,7 @@
       </c>
       <c r="R3" s="25"/>
       <c r="S3" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="T3" s="25"/>
       <c r="U3" s="25"/>
@@ -17012,91 +17012,91 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B5" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="S5" s="21" t="s">
         <v>130</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AE5" s="44"/>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>249</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>250</v>
       </c>
       <c r="D6" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G6" s="21" t="s">
         <v>84</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S6" s="21" t="s">
         <v>130</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AE6" s="44"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="C7" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>84</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="S7" s="21" t="s">
         <v>130</v>
       </c>
       <c r="T7" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AE7" s="44"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="E8" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="L8" s="21" t="s">
         <v>21</v>
       </c>
       <c r="M8" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="S8" s="21" t="s">
         <v>130</v>
       </c>
       <c r="T8" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AE8" s="44"/>
     </row>
@@ -17105,31 +17105,31 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q10" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="R10" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S10" s="21" t="s">
         <v>130</v>
       </c>
       <c r="T10" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE10" s="44"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="Q11" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="R11" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S11" s="21" t="s">
         <v>130</v>
       </c>
       <c r="T11" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE11" s="44"/>
     </row>
@@ -17141,7 +17141,7 @@
         <v>130</v>
       </c>
       <c r="T12" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE12" s="44"/>
     </row>
@@ -17153,7 +17153,7 @@
         <v>130</v>
       </c>
       <c r="T13" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE13" s="44"/>
     </row>
@@ -17165,16 +17165,16 @@
         <v>238</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S14" s="21" t="s">
         <v>130</v>
       </c>
       <c r="U14" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE14" s="44"/>
     </row>
@@ -17186,103 +17186,103 @@
         <v>238</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S15" s="21" t="s">
         <v>130</v>
       </c>
       <c r="U15" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE15" s="44"/>
     </row>
     <row r="16" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="E16" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="S16" s="21" t="s">
         <v>130</v>
       </c>
       <c r="T16" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE16" s="44"/>
     </row>
     <row r="17" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="E17" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S17" s="21" t="s">
         <v>130</v>
       </c>
       <c r="T17" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE17" s="44"/>
     </row>
     <row r="18" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="E18" s="21" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="L18" s="21" t="s">
         <v>238</v>
       </c>
       <c r="M18" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q18" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S18" s="21" t="s">
         <v>130</v>
       </c>
       <c r="U18" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE18" s="44"/>
     </row>
     <row r="19" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="E19" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L19" s="21" t="s">
         <v>238</v>
       </c>
       <c r="M19" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q19" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S19" s="21" t="s">
         <v>130</v>
       </c>
       <c r="U19" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE19" s="44"/>
     </row>
     <row r="20" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="E20" s="21" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="L20" s="21" t="s">
         <v>238</v>
       </c>
       <c r="M20" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q20" s="21" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="S20" s="21" t="s">
         <v>130</v>
       </c>
       <c r="U20" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE20" s="44"/>
     </row>
@@ -17291,52 +17291,52 @@
         <v>241</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="S21" s="21" t="s">
         <v>130</v>
       </c>
       <c r="T21" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE21" s="44"/>
     </row>
     <row r="22" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="C22" s="21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>238</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="Q22" s="21" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S22" s="21" t="s">
         <v>130</v>
       </c>
       <c r="U22" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE22" s="44"/>
     </row>
     <row r="23" spans="2:31" ht="30" x14ac:dyDescent="0.25">
       <c r="C23" s="21" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="S23" s="21" t="s">
         <v>130</v>
       </c>
       <c r="T23" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE23" s="44"/>
     </row>
@@ -17402,7 +17402,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17488,7 +17488,7 @@
         <v>181</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="S1" s="18" t="s">
         <v>186</v>
@@ -17639,14 +17639,14 @@
       <c r="A3" s="24"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="G3" s="25"/>
       <c r="H3" s="25" t="s">
@@ -17665,7 +17665,7 @@
         <v>60</v>
       </c>
       <c r="M3" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N3" s="25" t="s">
         <v>53</v>
@@ -17678,14 +17678,14 @@
       </c>
       <c r="Q3" s="25"/>
       <c r="R3" s="25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="S3" s="25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="T3" s="25"/>
       <c r="U3" s="25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
@@ -17740,10 +17740,10 @@
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
       <c r="S5" s="21" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U5" s="21"/>
       <c r="V5" s="21"/>
@@ -17777,10 +17777,10 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="S6" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="T6" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="U6" s="21"/>
       <c r="V6" s="21"/>
@@ -17831,7 +17831,7 @@
     </row>
     <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>240</v>
@@ -17839,12 +17839,12 @@
       <c r="G8" s="21"/>
       <c r="M8" s="21"/>
       <c r="S8" s="21" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C9" s="21" t="s">
         <v>241</v>
@@ -17852,7 +17852,7 @@
       <c r="K9" s="21"/>
       <c r="M9" s="21"/>
       <c r="S9" s="21" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="AG9" s="44"/>
     </row>
@@ -17863,7 +17863,7 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>240</v>
@@ -17871,13 +17871,13 @@
       <c r="K11" s="21"/>
       <c r="M11" s="21"/>
       <c r="S11" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG11" s="44"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>241</v>
@@ -17885,7 +17885,7 @@
       <c r="K12" s="21"/>
       <c r="M12" s="21"/>
       <c r="S12" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AG12" s="44"/>
     </row>
@@ -18518,110 +18518,110 @@
     <row r="4" spans="1:31" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="21" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="R5" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="J6" s="21" t="s">
         <v>238</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q6" s="21" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="AE6" s="44"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AE7" s="44"/>
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R8" s="21" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AE8" s="44"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>238</v>
       </c>
       <c r="K9" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="Q9" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="G10" s="21" t="s">
         <v>238</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q10" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AE10" s="44"/>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="AE11" s="44"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q12" s="21" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="R12" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE12" s="44"/>
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>238</v>
@@ -18630,16 +18630,16 @@
         <v>240</v>
       </c>
       <c r="Q13" s="21" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="AE13" s="44"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>238</v>
@@ -18648,28 +18648,28 @@
         <v>241</v>
       </c>
       <c r="Q14" s="21" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="AE14" s="44"/>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q15" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="R15" s="21" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="AE15" s="44"/>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>238</v>
@@ -18678,16 +18678,16 @@
         <v>240</v>
       </c>
       <c r="Q16" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AE16" s="44"/>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>238</v>
@@ -18696,7 +18696,7 @@
         <v>241</v>
       </c>
       <c r="Q17" s="21" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="AE17" s="44"/>
     </row>

--- a/XLFiles/Examples/Template Example Complex.xlsx
+++ b/XLFiles/Examples/Template Example Complex.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1095" windowWidth="7830" windowHeight="1965" tabRatio="880"/>
+    <workbookView xWindow="330" yWindow="1095" windowWidth="7830" windowHeight="1965" tabRatio="880" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Build" sheetId="183" r:id="rId1"/>
@@ -872,13 +872,13 @@
     <t>:^Evoked As,!Evoked Template,,^In Evocation,!-Role 2,,^In Evocation,!-Resp 2,,^In Evocation,!-Artifact 2,,^In Evocation,!-Evocation 2</t>
   </si>
   <si>
-    <t>Example Division-Region</t>
-  </si>
-  <si>
-    <t>Example Division</t>
-  </si>
-  <si>
-    <t>Execute Detail &lt;&lt;Example Division&gt;&gt;</t>
+    <t>Global Business-Region</t>
+  </si>
+  <si>
+    <t>Global Business</t>
+  </si>
+  <si>
+    <t>Execute Detail &lt;&lt;Global Business&gt;&gt;</t>
   </si>
 </sst>
 </file>
@@ -11915,7 +11915,7 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
     </sheetView>
@@ -18223,7 +18223,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:AE29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
